--- a/data/growth habits guide.xlsx
+++ b/data/growth habits guide.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2714EB6-808B-43DD-8752-4ED10BFEFF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96A841C-2C99-42C5-82BD-97D62E0883A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
+    <workbookView xWindow="1725" yWindow="3090" windowWidth="7545" windowHeight="15435" activeTab="3" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="fern" sheetId="2" r:id="rId2"/>
     <sheet name="unscored" sheetId="3" r:id="rId3"/>
+    <sheet name="final counts" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="125">
   <si>
     <t>shrub</t>
   </si>
@@ -409,6 +410,9 @@
   </si>
   <si>
     <t>unknown</t>
+  </si>
+  <si>
+    <t>freq</t>
   </si>
 </sst>
 </file>
@@ -763,7 +767,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B49"/>
+      <selection activeCell="B15" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1178,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A4D630-A617-4CF1-87DD-8D4F0597D05D}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,4 +1738,137 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD68C7C9-2F00-4B36-8A40-E29639428FD7}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A10">
+    <sortCondition ref="A2:A10"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/growth habits guide.xlsx
+++ b/data/growth habits guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96A841C-2C99-42C5-82BD-97D62E0883A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1701A29C-FA99-4F26-A7E9-44D9EAB4660A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="3090" windowWidth="7545" windowHeight="15435" activeTab="3" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1745,7 +1745,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,98 +1763,98 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>89</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>599</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1308</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B7">
-        <v>1431</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>217</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1866,8 +1866,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A10">
-    <sortCondition ref="A2:A10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
+    <sortCondition descending="1" ref="B2:B14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/growth habits guide.xlsx
+++ b/data/growth habits guide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1701A29C-FA99-4F26-A7E9-44D9EAB4660A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69BBE43-A40F-44B0-95AA-914F5D987166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="125">
   <si>
     <t>shrub</t>
   </si>
@@ -199,9 +199,6 @@
     <t>woody_climber</t>
   </si>
   <si>
-    <t>tree_fern</t>
-  </si>
-  <si>
     <t>case by case</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
     <t>habit</t>
   </si>
   <si>
-    <t>aquatic_fern</t>
-  </si>
-  <si>
     <t>epiphytic_fern</t>
   </si>
   <si>
@@ -413,6 +407,12 @@
   </si>
   <si>
     <t>freq</t>
+  </si>
+  <si>
+    <t>aquatic_herbs_and_ferns</t>
+  </si>
+  <si>
+    <t>fern (tree, terres, litho)</t>
   </si>
 </sst>
 </file>
@@ -767,7 +767,7 @@
   <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B1:B1048576"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +837,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1045,7 +1045,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B52"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,15 +1189,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
         <v>106</v>
-      </c>
-      <c r="B1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1213,55 +1213,55 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1317,23 +1317,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1373,23 +1373,23 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1397,15 +1397,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1413,23 +1413,23 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -1581,23 +1581,23 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -1625,15 +1625,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
         <v>106</v>
-      </c>
-      <c r="B1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1641,15 +1641,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1721,7 +1721,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -1742,23 +1742,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD68C7C9-2F00-4B36-8A40-E29639428FD7}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1795,10 +1795,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="B6">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1811,10 +1811,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="B8">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1827,7 +1827,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -1843,31 +1843,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
-    <sortCondition descending="1" ref="B2:B14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B12">
+    <sortCondition descending="1" ref="B2:B12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/growth habits guide.xlsx
+++ b/data/growth habits guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69BBE43-A40F-44B0-95AA-914F5D987166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6B5ED9-428D-4454-A0AC-8595E88234CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="125">
   <si>
     <t>shrub</t>
   </si>
@@ -178,9 +178,6 @@
     <t>climber_shrub</t>
   </si>
   <si>
-    <t>climber_liana tree</t>
-  </si>
-  <si>
     <t>original</t>
   </si>
   <si>
@@ -413,6 +410,9 @@
   </si>
   <si>
     <t>fern (tree, terres, litho)</t>
+  </si>
+  <si>
+    <t>original number</t>
   </si>
 </sst>
 </file>
@@ -764,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F293D1A1-B228-43E0-B612-9427AD834331}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
@@ -772,403 +772,546 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1281</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>B16+B19+B22+B23+B29</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1234</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>431</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="B37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
-      <c r="B46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
-      <c r="B47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" t="s">
-        <v>52</v>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C48">
+    <sortCondition descending="1" ref="B2:B48"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1178,7 +1321,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="B4" sqref="B4:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,151 +1332,151 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
         <v>105</v>
-      </c>
-      <c r="B1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1341,7 +1484,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1349,7 +1492,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1357,7 +1500,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1365,7 +1508,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -1373,23 +1516,23 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1397,15 +1540,15 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1413,23 +1556,23 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1437,7 +1580,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -1445,7 +1588,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1453,7 +1596,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1461,7 +1604,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -1469,7 +1612,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -1477,7 +1620,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -1485,7 +1628,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -1493,7 +1636,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -1501,7 +1644,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -1509,7 +1652,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -1517,7 +1660,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -1525,7 +1668,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -1533,7 +1676,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -1541,7 +1684,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -1549,7 +1692,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -1557,7 +1700,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -1565,7 +1708,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -1573,7 +1716,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -1581,29 +1724,32 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B52">
+    <sortCondition ref="B2:B52"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1614,7 +1760,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,15 +1771,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
         <v>105</v>
-      </c>
-      <c r="B1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1641,15 +1787,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1657,7 +1803,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1665,7 +1811,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1673,23 +1819,23 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -1697,7 +1843,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -1705,7 +1851,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1713,7 +1859,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1721,7 +1867,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -1729,7 +1875,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -1745,7 +1891,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,10 +1901,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1766,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1431</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1774,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1308</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1782,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1790,44 +1936,44 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -1835,7 +1981,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1843,7 +1989,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12">
         <v>1</v>

--- a/data/growth habits guide.xlsx
+++ b/data/growth habits guide.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6B5ED9-428D-4454-A0AC-8595E88234CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCED6C3-C852-4259-8BDC-E86F0EF43D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
+    <workbookView xWindow="345" yWindow="1815" windowWidth="7545" windowHeight="15435" activeTab="2" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="replacements" sheetId="1" r:id="rId1"/>
     <sheet name="fern" sheetId="2" r:id="rId2"/>
     <sheet name="unscored" sheetId="3" r:id="rId3"/>
     <sheet name="final counts" sheetId="4" r:id="rId4"/>
@@ -428,12 +428,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -448,8 +454,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F293D1A1-B228-43E0-B612-9427AD834331}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,7 +784,7 @@
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -787,7 +795,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -797,12 +805,8 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
-        <f>B16+B19+B22+B23+B29</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -813,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -824,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -835,7 +839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -846,7 +850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -857,7 +861,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -868,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -879,8 +883,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -890,7 +894,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -901,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -912,7 +916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -923,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -934,8 +938,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
@@ -945,7 +949,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1757,10 +1761,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A4D630-A617-4CF1-87DD-8D4F0597D05D}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="A3:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,100 +1790,108 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1890,7 +1902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD68C7C9-2F00-4B36-8A40-E29639428FD7}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>

--- a/data/growth habits guide.xlsx
+++ b/data/growth habits guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCED6C3-C852-4259-8BDC-E86F0EF43D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8038E74D-2BEB-49EA-AB25-08261ED037A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1815" windowWidth="7545" windowHeight="15435" activeTab="2" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
   </bookViews>
   <sheets>
     <sheet name="replacements" sheetId="1" r:id="rId1"/>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F293D1A1-B228-43E0-B612-9427AD834331}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -1763,7 +1763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A4D630-A617-4CF1-87DD-8D4F0597D05D}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="A3:B16"/>
     </sheetView>
   </sheetViews>
@@ -1903,7 +1903,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/growth habits guide.xlsx
+++ b/data/growth habits guide.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8038E74D-2BEB-49EA-AB25-08261ED037A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D5911D-C3C3-4C01-95DD-02F2E00FA6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
   </bookViews>
   <sheets>
-    <sheet name="replacements" sheetId="1" r:id="rId1"/>
-    <sheet name="fern" sheetId="2" r:id="rId2"/>
-    <sheet name="unscored" sheetId="3" r:id="rId3"/>
-    <sheet name="final counts" sheetId="4" r:id="rId4"/>
+    <sheet name="replacements (unphotographed)" sheetId="1" r:id="rId1"/>
+    <sheet name="ferns (unphotographed)" sheetId="2" r:id="rId2"/>
+    <sheet name="unscored (unphotographed)" sheetId="3" r:id="rId3"/>
+    <sheet name="final counts (unphotographed)" sheetId="4" r:id="rId4"/>
+    <sheet name="replacements (all species)" sheetId="5" r:id="rId5"/>
+    <sheet name="ferns (all species)" sheetId="6" r:id="rId6"/>
+    <sheet name="unscored (all species)" sheetId="7" r:id="rId7"/>
+    <sheet name="final counts (all species)" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="125">
   <si>
     <t>shrub</t>
   </si>
@@ -428,18 +432,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -454,9 +452,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -774,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F293D1A1-B228-43E0-B612-9427AD834331}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +870,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
@@ -895,7 +892,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -906,7 +903,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B12">
@@ -917,7 +914,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13">
@@ -928,7 +925,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -950,7 +947,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16">
@@ -1325,7 +1322,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,7 +1761,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="A3:B16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,108 +1787,108 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1903,7 +1900,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,4 +2010,1240 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE00787-7542-425F-B3EC-9EFCE3B59953}">
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1280</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1234</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>431</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>124</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62329DFF-86E4-48DA-B25C-A0AAC4761D4C}">
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC27D81B-81E2-4F34-A871-C86CA82E872C}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB6B8DE-FE85-4D1F-A7B9-465EEAC24C84}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S46" sqref="S46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/growth habits guide.xlsx
+++ b/data/growth habits guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D5911D-C3C3-4C01-95DD-02F2E00FA6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C8B79E-7414-4876-B884-DFCA1EC200E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="7" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
   </bookViews>
   <sheets>
     <sheet name="replacements (unphotographed)" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="621">
   <si>
     <t>shrub</t>
   </si>
@@ -362,9 +362,6 @@
     <t>habit</t>
   </si>
   <si>
-    <t>epiphytic_fern</t>
-  </si>
-  <si>
     <t>Stylidium planirosula</t>
   </si>
   <si>
@@ -413,20 +410,1518 @@
     <t>aquatic_herbs_and_ferns</t>
   </si>
   <si>
-    <t>fern (tree, terres, litho)</t>
-  </si>
-  <si>
     <t>original number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tree                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub tree                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">graminoid                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">graminoid_tussock                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fern                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquatic_herb                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">subshrub </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mallee tree                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb subshrub                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb shrub                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub subshrub                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mallee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_liana                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_vine                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_woody                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tussock                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hummock                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">palm_tree                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_twiner_woody                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycad_trunked                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb_primitive                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_vine_woody                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_liana shrub                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycad_basal                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_vine_herb                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(not scorable)                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_vine herb                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tree shrub                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">subshrub shrub                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fern_tree                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_vine_herbaceous                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_shrub                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_twiner herb                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_twiner_woody shrub                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub treelet                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb subshrub shrub                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tree_monocot                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_herb herb                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_woody shrub                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb climber_vine_herbaceous                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_twiner                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">monocot_tree                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">monocot_large_basal                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">geophyte      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_shrub shrub                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_palm                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquatic_herb herb                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mallee shrub tree                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tree climber_liana epiphyte                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tree (shrub)                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hummock graminoid_tussock                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mallee shrub                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb climber_vine                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">monocot_large_basal monocot_tree                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub climber_liana                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb geophyte                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tree mallee                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub climber_shrub                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">subshrub herb                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb shrub subshrub                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb monocot_shrub                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycad_basal (cycad_trunked)                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cushion herb                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_twiner climber_vine                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub_monocot tree_monocot                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub climber_woody                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mallet      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb_giant                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_fern                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub_monocot                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub tree climber_shrub                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub herb                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb_semi-aquatic                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb tussock                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb shrub_green-stem                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb climber_twiner                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb climber_herb                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">graminoid_tussock aquatic_herb                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cycad_basal cycad_trunked                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_woody shrub tree                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_liana subshrub                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_liana epiphyte                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aquatic_herb herb_semi-aquatic                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">treelet shrub                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tree shrub climber_vine_woody                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tree lithophyte                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">subshrub shrub herb                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">subshrub climber_vine                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">subshrub climber_twiner_woody                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub tree mallee                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub tree climber_liana                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub tree (climber_liana)                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub mallee                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub epiphyte climber_vine_woody                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub climber_twiner climber_twiner_woody         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub climber                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub (tree)                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrub (climber_shrub)                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mallett       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb_aquatic herb_semi-aquatic                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb shrub tree                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb shrub climber_vine                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb climber_scrambler subshrub                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">herb aquatic_herb                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">graminoid climber_herb                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">epiphyte lithophyte shrub                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">epiphyte herb lithophyte shrub                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_woody epiphyte                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_vine_woody shrub                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_vine_woody climber_shrub                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_vine subshrub                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_vine shrub                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_vine climber_vine_woody                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_twiner_woody climber_liana                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_twiner_herb herb                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_twiner subshrub                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_shrub shrub tree                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_shrub climber_twiner_woody                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_shrub climber_liana                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_scrambler herb                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_scrambler climber_twiner                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_scrambler                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_liana subshrub shrub                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_liana climber_vine                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">climber_herb                                      </t>
+  </si>
+  <si>
+    <t>Ipomoea brownii</t>
+  </si>
+  <si>
+    <t>Jacquemontia browniana</t>
+  </si>
+  <si>
+    <t>Indigofera sericovexilla</t>
+  </si>
+  <si>
+    <t>Tephrosia macrostachya</t>
+  </si>
+  <si>
+    <t>Vitex benthamiana</t>
+  </si>
+  <si>
+    <t>Abutilon nobile</t>
+  </si>
+  <si>
+    <t>Abutilon subviscosum</t>
+  </si>
+  <si>
+    <t>Sida atherophora</t>
+  </si>
+  <si>
+    <t>Sida magnifica</t>
+  </si>
+  <si>
+    <t>Phyllanthus dallachyanus</t>
+  </si>
+  <si>
+    <t>Phyllanthus mitchellii</t>
+  </si>
+  <si>
+    <t>Phyllanthus triandrus</t>
+  </si>
+  <si>
+    <t>Spermacoce baileyana</t>
+  </si>
+  <si>
+    <t>Spermacoce cristulata</t>
+  </si>
+  <si>
+    <t>Spermacoce debilis</t>
+  </si>
+  <si>
+    <t>Spermacoce multicaulis</t>
+  </si>
+  <si>
+    <t>Asplenium aethiopicum</t>
+  </si>
+  <si>
+    <t>Asplenium appendiculatum</t>
+  </si>
+  <si>
+    <t>Asplenium athertonense</t>
+  </si>
+  <si>
+    <t>Asplenium attenuatum</t>
+  </si>
+  <si>
+    <t>Asplenium australasicum</t>
+  </si>
+  <si>
+    <t>Asplenium baileyanum</t>
+  </si>
+  <si>
+    <t>Asplenium bicentenniale</t>
+  </si>
+  <si>
+    <t>Asplenium bulbiferum</t>
+  </si>
+  <si>
+    <t>Asplenium capitisyork</t>
+  </si>
+  <si>
+    <t>Asplenium carnarvonense</t>
+  </si>
+  <si>
+    <t>Asplenium cuneatum</t>
+  </si>
+  <si>
+    <t>Asplenium difforme</t>
+  </si>
+  <si>
+    <t>Asplenium dimorphum</t>
+  </si>
+  <si>
+    <t>Asplenium flabellifolium</t>
+  </si>
+  <si>
+    <t>Asplenium flaccidum</t>
+  </si>
+  <si>
+    <t>Asplenium goudeyi</t>
+  </si>
+  <si>
+    <t>Asplenium gracillimum</t>
+  </si>
+  <si>
+    <t>Asplenium harmanii</t>
+  </si>
+  <si>
+    <t>Asplenium hookerianum</t>
+  </si>
+  <si>
+    <t>Asplenium laserpitiifolium</t>
+  </si>
+  <si>
+    <t>Asplenium listeri</t>
+  </si>
+  <si>
+    <t>Asplenium milnei</t>
+  </si>
+  <si>
+    <t>Asplenium nidus</t>
+  </si>
+  <si>
+    <t>Asplenium obtusatum</t>
+  </si>
+  <si>
+    <t>Asplenium paleaceum</t>
+  </si>
+  <si>
+    <t>Asplenium parvum</t>
+  </si>
+  <si>
+    <t>Asplenium pellucidum</t>
+  </si>
+  <si>
+    <t>Asplenium polyodon</t>
+  </si>
+  <si>
+    <t>Asplenium simplicifrons</t>
+  </si>
+  <si>
+    <t>Asplenium subglandulosum</t>
+  </si>
+  <si>
+    <t>Asplenium surrogatum</t>
+  </si>
+  <si>
+    <t>Asplenium tenerum</t>
+  </si>
+  <si>
+    <t>Asplenium trichomanes</t>
+  </si>
+  <si>
+    <t>Hymenasplenium excisum</t>
+  </si>
+  <si>
+    <t>Hymenasplenium unilaterale</t>
+  </si>
+  <si>
+    <t>Hymenasplenium wildii</t>
+  </si>
+  <si>
+    <t>Blechnum ambiguum</t>
+  </si>
+  <si>
+    <t>Blechnum articulatum</t>
+  </si>
+  <si>
+    <t>Blechnum camfieldii</t>
+  </si>
+  <si>
+    <t>Blechnum cartilagineum</t>
+  </si>
+  <si>
+    <t>Blechnum chambersii</t>
+  </si>
+  <si>
+    <t>Blechnum contiguum</t>
+  </si>
+  <si>
+    <t>Blechnum doodianum</t>
+  </si>
+  <si>
+    <t>Blechnum fluviatile</t>
+  </si>
+  <si>
+    <t>Blechnum geniculatum</t>
+  </si>
+  <si>
+    <t>Blechnum gregsonii</t>
+  </si>
+  <si>
+    <t>Blechnum hindii</t>
+  </si>
+  <si>
+    <t>Blechnum howeanum</t>
+  </si>
+  <si>
+    <t>Blechnum lineare</t>
+  </si>
+  <si>
+    <t>Blechnum maximum</t>
+  </si>
+  <si>
+    <t>Blechnum medium</t>
+  </si>
+  <si>
+    <t>Blechnum minus</t>
+  </si>
+  <si>
+    <t>Blechnum neglectum</t>
+  </si>
+  <si>
+    <t>Blechnum neohollandicum</t>
+  </si>
+  <si>
+    <t>Blechnum nudum</t>
+  </si>
+  <si>
+    <t>Blechnum orientale</t>
+  </si>
+  <si>
+    <t>Blechnum parrisiae</t>
+  </si>
+  <si>
+    <t>Blechnum patersonii</t>
+  </si>
+  <si>
+    <t>Blechnum penna-marina</t>
+  </si>
+  <si>
+    <t>Blechnum reticulatum</t>
+  </si>
+  <si>
+    <t>Blechnum rupestre</t>
+  </si>
+  <si>
+    <t>Blechnum vulcanicum</t>
+  </si>
+  <si>
+    <t>Blechnum wattsii</t>
+  </si>
+  <si>
+    <t>Blechnum wurunuran</t>
+  </si>
+  <si>
+    <t>Stenochlaena palustris</t>
+  </si>
+  <si>
+    <t>Telmatoblechnum indicum</t>
+  </si>
+  <si>
+    <t>Davallia denticulata</t>
+  </si>
+  <si>
+    <t>Davallia solida</t>
+  </si>
+  <si>
+    <t>Humata repens</t>
+  </si>
+  <si>
+    <t>Dennstaedtia davallioides</t>
+  </si>
+  <si>
+    <t>Histiopteris incisa</t>
+  </si>
+  <si>
+    <t>Hiya distans</t>
+  </si>
+  <si>
+    <t>Hypolepis amaurorachis</t>
+  </si>
+  <si>
+    <t>Hypolepis dicksonioides</t>
+  </si>
+  <si>
+    <t>Hypolepis elegans</t>
+  </si>
+  <si>
+    <t>Hypolepis glandulifera</t>
+  </si>
+  <si>
+    <t>Hypolepis muelleri</t>
+  </si>
+  <si>
+    <t>Hypolepis rugosula</t>
+  </si>
+  <si>
+    <t>Hypolepis tenuifolia</t>
+  </si>
+  <si>
+    <t>Microlepia speluncae</t>
+  </si>
+  <si>
+    <t>Pteridium esculentum</t>
+  </si>
+  <si>
+    <t>Calochlaena dubia</t>
+  </si>
+  <si>
+    <t>Calochlaena villosa</t>
+  </si>
+  <si>
+    <t>Dipteris conjugata</t>
+  </si>
+  <si>
+    <t>Arachniodes aristata</t>
+  </si>
+  <si>
+    <t>Bolbitis quoyana</t>
+  </si>
+  <si>
+    <t>Bolbitis taylorii</t>
+  </si>
+  <si>
+    <t>Dryopteris hasseltii</t>
+  </si>
+  <si>
+    <t>Dryopteris sparsa</t>
+  </si>
+  <si>
+    <t>Dryopteris wattsii</t>
+  </si>
+  <si>
+    <t>Elaphoglossum callifolium</t>
+  </si>
+  <si>
+    <t>Elaphoglossum queenslandicum</t>
+  </si>
+  <si>
+    <t>Lastreopsis acuminata</t>
+  </si>
+  <si>
+    <t>Lastreopsis calantha</t>
+  </si>
+  <si>
+    <t>Lastreopsis grayi</t>
+  </si>
+  <si>
+    <t>Lastreopsis hispida</t>
+  </si>
+  <si>
+    <t>Lastreopsis marginans</t>
+  </si>
+  <si>
+    <t>Lastreopsis microsora</t>
+  </si>
+  <si>
+    <t>Lastreopsis munita</t>
+  </si>
+  <si>
+    <t>Lastreopsis nephrodioides</t>
+  </si>
+  <si>
+    <t>Lastreopsis poecilophlebia</t>
+  </si>
+  <si>
+    <t>Lastreopsis rufescens</t>
+  </si>
+  <si>
+    <t>Lastreopsis silvestris</t>
+  </si>
+  <si>
+    <t>Lastreopsis smithiana</t>
+  </si>
+  <si>
+    <t>Lastreopsis tenera</t>
+  </si>
+  <si>
+    <t>Lastreopsis tripinnata</t>
+  </si>
+  <si>
+    <t>Lastreopsis walleri</t>
+  </si>
+  <si>
+    <t>Lastreopsis wurunuran</t>
+  </si>
+  <si>
+    <t>Polystichum australiense</t>
+  </si>
+  <si>
+    <t>Polystichum fallax</t>
+  </si>
+  <si>
+    <t>Polystichum formosum</t>
+  </si>
+  <si>
+    <t>Polystichum proliferum</t>
+  </si>
+  <si>
+    <t>Polystichum vestitum</t>
+  </si>
+  <si>
+    <t>Polystichum whiteleggei</t>
+  </si>
+  <si>
+    <t>Rumohra adiantiformis</t>
+  </si>
+  <si>
+    <t>Teratophyllum brightiae</t>
+  </si>
+  <si>
+    <t>Dicranopteris linearis</t>
+  </si>
+  <si>
+    <t>Diplopterygium longissimum</t>
+  </si>
+  <si>
+    <t>Gleichenia abscida</t>
+  </si>
+  <si>
+    <t>Gleichenia alpina</t>
+  </si>
+  <si>
+    <t>Gleichenia dicarpa</t>
+  </si>
+  <si>
+    <t>Gleichenia mendellii</t>
+  </si>
+  <si>
+    <t>Gleichenia microphylla</t>
+  </si>
+  <si>
+    <t>Gleichenia rupestris</t>
+  </si>
+  <si>
+    <t>Sticherus flabellatus</t>
+  </si>
+  <si>
+    <t>Sticherus lobatus</t>
+  </si>
+  <si>
+    <t>Sticherus milnei</t>
+  </si>
+  <si>
+    <t>Sticherus tener</t>
+  </si>
+  <si>
+    <t>Sticherus urceolatus</t>
+  </si>
+  <si>
+    <t>Ctenopterella gordonii</t>
+  </si>
+  <si>
+    <t>Oreogrammitis albosetosa</t>
+  </si>
+  <si>
+    <t>Oreogrammitis queenslandica</t>
+  </si>
+  <si>
+    <t>Oreogrammitis wurunuran</t>
+  </si>
+  <si>
+    <t>Abrodictyum brassii</t>
+  </si>
+  <si>
+    <t>Abrodictyum caudatum</t>
+  </si>
+  <si>
+    <t>Abrodictyum obscurum</t>
+  </si>
+  <si>
+    <t>Cephalomanes atrovirens</t>
+  </si>
+  <si>
+    <t>Cephalomanes bauerianum</t>
+  </si>
+  <si>
+    <t>Crepidomanes aphlebioides</t>
+  </si>
+  <si>
+    <t>Crepidomanes barnardianum</t>
+  </si>
+  <si>
+    <t>Crepidomanes bipunctatum</t>
+  </si>
+  <si>
+    <t>Crepidomanes kurzii</t>
+  </si>
+  <si>
+    <t>Crepidomanes proliferum</t>
+  </si>
+  <si>
+    <t>Crepidomanes saxifragoides</t>
+  </si>
+  <si>
+    <t>Crepidomanes vitiense</t>
+  </si>
+  <si>
+    <t>Crepidomanes walleri</t>
+  </si>
+  <si>
+    <t>Didymoglossum bimarginatum</t>
+  </si>
+  <si>
+    <t>Didymoglossum motleyi</t>
+  </si>
+  <si>
+    <t>Didymoglossum tahitense</t>
+  </si>
+  <si>
+    <t>Hymenophyllum applanatum</t>
+  </si>
+  <si>
+    <t>Hymenophyllum australe</t>
+  </si>
+  <si>
+    <t>Hymenophyllum baileyanum</t>
+  </si>
+  <si>
+    <t>Hymenophyllum bivalve</t>
+  </si>
+  <si>
+    <t>Hymenophyllum cupressiforme</t>
+  </si>
+  <si>
+    <t>Hymenophyllum eboracense</t>
+  </si>
+  <si>
+    <t>Hymenophyllum falklandicum</t>
+  </si>
+  <si>
+    <t>Hymenophyllum flabellatum</t>
+  </si>
+  <si>
+    <t>Hymenophyllum howense</t>
+  </si>
+  <si>
+    <t>Hymenophyllum javanicum</t>
+  </si>
+  <si>
+    <t>Hymenophyllum lyallii</t>
+  </si>
+  <si>
+    <t>Hymenophyllum marginatum</t>
+  </si>
+  <si>
+    <t>Hymenophyllum moorei</t>
+  </si>
+  <si>
+    <t>Hymenophyllum pallidum</t>
+  </si>
+  <si>
+    <t>Hymenophyllum peltatum</t>
+  </si>
+  <si>
+    <t>Hymenophyllum polyanthos</t>
+  </si>
+  <si>
+    <t>Hymenophyllum rarum</t>
+  </si>
+  <si>
+    <t>Hymenophyllum samoense</t>
+  </si>
+  <si>
+    <t>Hymenophyllum walleri</t>
+  </si>
+  <si>
+    <t>Polyphlebium endlicherianum</t>
+  </si>
+  <si>
+    <t>Polyphlebium venosum</t>
+  </si>
+  <si>
+    <t>Vandenboschia johnstonensis</t>
+  </si>
+  <si>
+    <t>Lindsaea brachypoda</t>
+  </si>
+  <si>
+    <t>Lindsaea dimorpha</t>
+  </si>
+  <si>
+    <t>Lindsaea ensifolia</t>
+  </si>
+  <si>
+    <t>Lindsaea fraseri</t>
+  </si>
+  <si>
+    <t>Lindsaea incisa</t>
+  </si>
+  <si>
+    <t>Lindsaea linearis</t>
+  </si>
+  <si>
+    <t>Lindsaea media</t>
+  </si>
+  <si>
+    <t>Lindsaea microphylla</t>
+  </si>
+  <si>
+    <t>Lindsaea obtusa</t>
+  </si>
+  <si>
+    <t>Lindsaea repens</t>
+  </si>
+  <si>
+    <t>Lindsaea terrae-reginae</t>
+  </si>
+  <si>
+    <t>Lindsaea trichomanoides</t>
+  </si>
+  <si>
+    <t>Lindsaea walkerae</t>
+  </si>
+  <si>
+    <t>Lomariopsis kingii</t>
+  </si>
+  <si>
+    <t>Nephrolepis acutifolia</t>
+  </si>
+  <si>
+    <t>Nephrolepis arida</t>
+  </si>
+  <si>
+    <t>Nephrolepis biserrata</t>
+  </si>
+  <si>
+    <t>Nephrolepis brownii</t>
+  </si>
+  <si>
+    <t>Nephrolepis cordifolia</t>
+  </si>
+  <si>
+    <t>Nephrolepis hirsutula</t>
+  </si>
+  <si>
+    <t>Nephrolepis multiflora</t>
+  </si>
+  <si>
+    <t>Nephrolepis obliterata</t>
+  </si>
+  <si>
+    <t>Ptisana howeana</t>
+  </si>
+  <si>
+    <t>Ptisana oreades</t>
+  </si>
+  <si>
+    <t>Marsilea angustifolia</t>
+  </si>
+  <si>
+    <t>Marsilea costulifera</t>
+  </si>
+  <si>
+    <t>Marsilea crenata</t>
+  </si>
+  <si>
+    <t>Marsilea drummondii</t>
+  </si>
+  <si>
+    <t>Marsilea exarata</t>
+  </si>
+  <si>
+    <t>Marsilea hirsuta</t>
+  </si>
+  <si>
+    <t>Marsilea mutica</t>
+  </si>
+  <si>
+    <t>Pilularia novae-hollandiae</t>
+  </si>
+  <si>
+    <t>Oleandra neriiformis</t>
+  </si>
+  <si>
+    <t>Botrychium australe</t>
+  </si>
+  <si>
+    <t>Botrychium lunaria</t>
+  </si>
+  <si>
+    <t>Helminthostachys zeylanica</t>
+  </si>
+  <si>
+    <t>Ophioglossum costatum</t>
+  </si>
+  <si>
+    <t>Ophioglossum gramineum</t>
+  </si>
+  <si>
+    <t>Ophioglossum intermedium</t>
+  </si>
+  <si>
+    <t>Ophioglossum lusitanicum</t>
+  </si>
+  <si>
+    <t>Ophioglossum pendulum</t>
+  </si>
+  <si>
+    <t>Ophioglossum polyphyllum</t>
+  </si>
+  <si>
+    <t>Ophioglossum reticulatum</t>
+  </si>
+  <si>
+    <t>Leptopteris fraseri</t>
+  </si>
+  <si>
+    <t>Leptopteris moorei</t>
+  </si>
+  <si>
+    <t>Todea barbara</t>
+  </si>
+  <si>
+    <t>Belvisia mucronata</t>
+  </si>
+  <si>
+    <t>Colysis sayeri</t>
+  </si>
+  <si>
+    <t>Dendroconche scandens</t>
+  </si>
+  <si>
+    <t>Dictymia brownii</t>
+  </si>
+  <si>
+    <t>Drynaria quercifolia</t>
+  </si>
+  <si>
+    <t>Drynaria rigidula</t>
+  </si>
+  <si>
+    <t>Drynaria sparsisora</t>
+  </si>
+  <si>
+    <t>Goniophlebium percussum</t>
+  </si>
+  <si>
+    <t>Goniophlebium subauriculatum</t>
+  </si>
+  <si>
+    <t>Grammitis diminuta</t>
+  </si>
+  <si>
+    <t>Grammitis nudicarpa</t>
+  </si>
+  <si>
+    <t>Grammitis stenophylla</t>
+  </si>
+  <si>
+    <t>Grammitis wattsii</t>
+  </si>
+  <si>
+    <t>Lecanopteris sinuosa</t>
+  </si>
+  <si>
+    <t>Microsorum australiense</t>
+  </si>
+  <si>
+    <t>Microsorum grossum</t>
+  </si>
+  <si>
+    <t>Microsorum membranifolium</t>
+  </si>
+  <si>
+    <t>Microsorum punctatum</t>
+  </si>
+  <si>
+    <t>Microsorum scolopendria</t>
+  </si>
+  <si>
+    <t>Notogrammitis angustifolia</t>
+  </si>
+  <si>
+    <t>Notogrammitis billardierei</t>
+  </si>
+  <si>
+    <t>Notogrammitis crassior</t>
+  </si>
+  <si>
+    <t>Notogrammitis heterophylla</t>
+  </si>
+  <si>
+    <t>Notogrammitis pseudociliata</t>
+  </si>
+  <si>
+    <t>Platycerium bifurcatum</t>
+  </si>
+  <si>
+    <t>Platycerium hillii</t>
+  </si>
+  <si>
+    <t>Platycerium superbum</t>
+  </si>
+  <si>
+    <t>Platycerium veitchii</t>
+  </si>
+  <si>
+    <t>Prosaptia contigua</t>
+  </si>
+  <si>
+    <t>Prosaptia fuscopilosa</t>
+  </si>
+  <si>
+    <t>Prosaptia maidenii</t>
+  </si>
+  <si>
+    <t>Pyrrosia confluens</t>
+  </si>
+  <si>
+    <t>Pyrrosia lanceolata</t>
+  </si>
+  <si>
+    <t>Pyrrosia longifolia</t>
+  </si>
+  <si>
+    <t>Pyrrosia rupestris</t>
+  </si>
+  <si>
+    <t>Scleroglossum wooroonooran</t>
+  </si>
+  <si>
+    <t>Selliguea simplicissima</t>
+  </si>
+  <si>
+    <t>Zealandia pustulata</t>
+  </si>
+  <si>
+    <t>Acrostichum aureum</t>
+  </si>
+  <si>
+    <t>Acrostichum speciosum</t>
+  </si>
+  <si>
+    <t>Adiantum aethiopicum</t>
+  </si>
+  <si>
+    <t>Adiantum atroviride</t>
+  </si>
+  <si>
+    <t>Adiantum capillus-veneris</t>
+  </si>
+  <si>
+    <t>Adiantum diaphanum</t>
+  </si>
+  <si>
+    <t>Adiantum formosum</t>
+  </si>
+  <si>
+    <t>Adiantum hispidulum</t>
+  </si>
+  <si>
+    <t>Adiantum philippense</t>
+  </si>
+  <si>
+    <t>Adiantum silvaticum</t>
+  </si>
+  <si>
+    <t>Anogramma leptophylla</t>
+  </si>
+  <si>
+    <t>Antrophyum callifolium</t>
+  </si>
+  <si>
+    <t>Antrophyum plantagineum</t>
+  </si>
+  <si>
+    <t>Antrophyum subfalcatum</t>
+  </si>
+  <si>
+    <t>Ceratopteris thalictroides</t>
+  </si>
+  <si>
+    <t>Cheilanthes austrotenuifolia</t>
+  </si>
+  <si>
+    <t>Cheilanthes brownii</t>
+  </si>
+  <si>
+    <t>Cheilanthes caudata</t>
+  </si>
+  <si>
+    <t>Cheilanthes contigua</t>
+  </si>
+  <si>
+    <t>Cheilanthes distans</t>
+  </si>
+  <si>
+    <t>Cheilanthes lasiophylla</t>
+  </si>
+  <si>
+    <t>Cheilanthes nitida</t>
+  </si>
+  <si>
+    <t>Cheilanthes nudiuscula</t>
+  </si>
+  <si>
+    <t>Cheilanthes prenticei</t>
+  </si>
+  <si>
+    <t>Cheilanthes pumilio</t>
+  </si>
+  <si>
+    <t>Cheilanthes sieberi</t>
+  </si>
+  <si>
+    <t>Cheilanthes tenuifolia</t>
+  </si>
+  <si>
+    <t>Doryopteris concolor</t>
+  </si>
+  <si>
+    <t>Haplopteris elongata</t>
+  </si>
+  <si>
+    <t>Haplopteris ensiformis</t>
+  </si>
+  <si>
+    <t>Monogramma acrocarpa</t>
+  </si>
+  <si>
+    <t>Paraceterach muelleri</t>
+  </si>
+  <si>
+    <t>Pellaea calidirupium</t>
+  </si>
+  <si>
+    <t>Pellaea falcata</t>
+  </si>
+  <si>
+    <t>Pellaea nana</t>
+  </si>
+  <si>
+    <t>Pellaea paradoxa</t>
+  </si>
+  <si>
+    <t>Pellaea reynoldsii</t>
+  </si>
+  <si>
+    <t>Platyzoma microphyllum</t>
+  </si>
+  <si>
+    <t>Pteris comans</t>
+  </si>
+  <si>
+    <t>Pteris ensiformis</t>
+  </si>
+  <si>
+    <t>Pteris kingiana</t>
+  </si>
+  <si>
+    <t>Pteris microptera</t>
+  </si>
+  <si>
+    <t>Pteris pacifica</t>
+  </si>
+  <si>
+    <t>Pteris tremula</t>
+  </si>
+  <si>
+    <t>Pteris tripartita</t>
+  </si>
+  <si>
+    <t>Pteris umbrosa</t>
+  </si>
+  <si>
+    <t>Pteris vittata</t>
+  </si>
+  <si>
+    <t>Taenitis blechnoides</t>
+  </si>
+  <si>
+    <t>Taenitis pinnata</t>
+  </si>
+  <si>
+    <t>Azolla pinnata</t>
+  </si>
+  <si>
+    <t>Azolla rubra</t>
+  </si>
+  <si>
+    <t>Actinostachys digitata</t>
+  </si>
+  <si>
+    <t>Schizaea bifida</t>
+  </si>
+  <si>
+    <t>Schizaea dichotoma</t>
+  </si>
+  <si>
+    <t>Schizaea fistulosa</t>
+  </si>
+  <si>
+    <t>Schizaea malaccana</t>
+  </si>
+  <si>
+    <t>Schizaea rupestris</t>
+  </si>
+  <si>
+    <t>Arthropteris beckleri</t>
+  </si>
+  <si>
+    <t>Arthropteris palisotii</t>
+  </si>
+  <si>
+    <t>Arthropteris submarginalis</t>
+  </si>
+  <si>
+    <t>Arthropteris tenella</t>
+  </si>
+  <si>
+    <t>Tectaria brachiata</t>
+  </si>
+  <si>
+    <t>Tectaria confluens</t>
+  </si>
+  <si>
+    <t>Tectaria devexa</t>
+  </si>
+  <si>
+    <t>Tectaria siifolia</t>
+  </si>
+  <si>
+    <t>Ampelopteris prolifera</t>
+  </si>
+  <si>
+    <t>Amphineuron opulentum</t>
+  </si>
+  <si>
+    <t>Amphineuron terminans</t>
+  </si>
+  <si>
+    <t>Chingia australis</t>
+  </si>
+  <si>
+    <t>Christella arida</t>
+  </si>
+  <si>
+    <t>Christella dentata</t>
+  </si>
+  <si>
+    <t>Christella hispidula</t>
+  </si>
+  <si>
+    <t>Christella parasitica</t>
+  </si>
+  <si>
+    <t>Christella subpubescens</t>
+  </si>
+  <si>
+    <t>Cyclosorus interruptus</t>
+  </si>
+  <si>
+    <t>Macrothelypteris polypodioides</t>
+  </si>
+  <si>
+    <t>Macrothelypteris torresiana</t>
+  </si>
+  <si>
+    <t>Plesioneuron tuberculatum</t>
+  </si>
+  <si>
+    <t>Pneumatopteris costata</t>
+  </si>
+  <si>
+    <t>Pneumatopteris pennigera</t>
+  </si>
+  <si>
+    <t>Pneumatopteris sogerensis</t>
+  </si>
+  <si>
+    <t>Pronephrium asperum</t>
+  </si>
+  <si>
+    <t>Pronephrium triphyllum</t>
+  </si>
+  <si>
+    <t>Sphaerostephanos heterocarpus</t>
+  </si>
+  <si>
+    <t>Sphaerostephanos unitus</t>
+  </si>
+  <si>
+    <t>Callipteris prolifera</t>
+  </si>
+  <si>
+    <t>Cystopteris tasmanica</t>
+  </si>
+  <si>
+    <t>Deparia petersenii</t>
+  </si>
+  <si>
+    <t>Diplazium assimile</t>
+  </si>
+  <si>
+    <t>Diplazium australe</t>
+  </si>
+  <si>
+    <t>Diplazium cordifolium</t>
+  </si>
+  <si>
+    <t>Diplazium dameriae</t>
+  </si>
+  <si>
+    <t>Diplazium dietrichianum</t>
+  </si>
+  <si>
+    <t>Diplazium dilatatum</t>
+  </si>
+  <si>
+    <t>Diplazium melanochlamys</t>
+  </si>
+  <si>
+    <t>Diplazium pallidum</t>
+  </si>
+  <si>
+    <t>Diplazium queenslandicum</t>
+  </si>
+  <si>
+    <t>Diplazium squamuligerum</t>
+  </si>
+  <si>
+    <t>grasstree</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -452,9 +1947,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,7 +2270,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B2" sqref="B2:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,7 +2284,7 @@
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
         <v>47</v>
@@ -855,7 +2353,7 @@
         <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1322,7 +2820,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,7 +2842,7 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1352,7 +2850,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1360,7 +2858,7 @@
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1368,7 +2866,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1376,7 +2874,7 @@
         <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1384,7 +2882,7 @@
         <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1392,7 +2890,7 @@
         <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1400,7 +2898,7 @@
         <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1408,7 +2906,7 @@
         <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1416,7 +2914,7 @@
         <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1424,7 +2922,7 @@
         <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1432,7 +2930,7 @@
         <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1440,7 +2938,7 @@
         <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1448,7 +2946,7 @@
         <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1456,7 +2954,7 @@
         <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1780,7 +3278,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1788,15 +3286,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1804,7 +3302,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -1812,7 +3310,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -1820,7 +3318,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>50</v>
@@ -1828,7 +3326,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
@@ -1836,7 +3334,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
@@ -1844,7 +3342,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -1852,7 +3350,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -1860,7 +3358,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -1868,7 +3366,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
@@ -1876,7 +3374,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -1897,10 +3395,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD68C7C9-2F00-4B36-8A40-E29639428FD7}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,105 +3406,152 @@
     <col min="1" max="1" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1406</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>(B2/3715)*100</f>
+        <v>37.846567967698519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1289</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f t="shared" ref="C3:C12" si="0">(B3/3715)*100</f>
+        <v>34.697173620457605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>597</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>16.069986541049801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>213</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>5.7335127860026915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2.3956931359353972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.3728129205921937</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
       <c r="B8">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.91520861372812923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
       <c r="B9">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.86137281292059209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>8.0753701211305526E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2.6917900403768503E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>619</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B12">
-    <sortCondition descending="1" ref="B2:B12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
+    <sortCondition descending="1" ref="B2:B11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2014,365 +3559,374 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE00787-7542-425F-B3EC-9EFCE3B59953}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="B2">
-        <v>1280</v>
+        <v>7401</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="B3">
-        <v>1234</v>
+        <v>5880</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4">
+        <v>1653</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5">
+        <v>1363</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6">
+        <v>1039</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>431</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7">
+        <v>626</v>
+      </c>
+      <c r="C7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>147</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8">
+        <v>404</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9">
+        <v>305</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10">
+        <v>246</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11">
+        <v>195</v>
+      </c>
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>124</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>76</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>48</v>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>133</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>134</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>135</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>136</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>137</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>138</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>139</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>140</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>141</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>142</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>143</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>144</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30">
         <v>26</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -2380,43 +3934,43 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
         <v>50</v>
@@ -2424,43 +3978,43 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -2468,109 +4022,991 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>619</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>188</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>190</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>193</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>196</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>197</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>198</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>199</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>200</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>201</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>202</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>203</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>204</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>205</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>207</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>208</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>209</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>210</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>211</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>212</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>213</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>214</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>215</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>216</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>217</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>218</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>219</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>221</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>223</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>224</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>225</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>226</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>227</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>228</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>229</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>230</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>231</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>232</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>233</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>234</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>235</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>236</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>238</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>239</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>240</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>246</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>248</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>249</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62329DFF-86E4-48DA-B25C-A0AAC4761D4C}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B405"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="B280" sqref="B280:B288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2583,135 +5019,135 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>399</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>400</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>401</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>521</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>522</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>572</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>59</v>
+      <c r="A8" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>523</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>524</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>525</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>526</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>527</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>528</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>529</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>530</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>586</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>54</v>
+      <c r="A18" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -2719,15 +5155,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>587</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>62</v>
+      <c r="A20" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -2735,7 +5171,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>588</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -2743,7 +5179,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>531</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -2751,15 +5187,15 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>532</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>66</v>
+      <c r="A24" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -2767,7 +5203,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>533</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -2775,7 +5211,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>534</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -2783,7 +5219,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>350</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -2791,7 +5227,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>578</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -2799,7 +5235,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>579</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -2807,7 +5243,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>580</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -2815,7 +5251,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>581</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -2823,7 +5259,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -2831,7 +5267,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -2839,7 +5275,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -2847,7 +5283,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>269</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -2855,7 +5291,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -2863,7 +5299,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>271</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
@@ -2871,7 +5307,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -2879,7 +5315,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>273</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -2887,7 +5323,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -2895,7 +5331,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>275</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -2903,7 +5339,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -2911,7 +5347,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>277</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -2919,7 +5355,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -2927,7 +5363,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>279</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -2935,7 +5371,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -2943,7 +5379,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>281</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -2951,7 +5387,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>282</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -2959,7 +5395,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>283</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -2967,7 +5403,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -2975,7 +5411,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>285</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -2983,13 +5419,2840 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>287</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>289</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>290</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>291</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>294</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>295</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>296</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>297</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>298</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>570</v>
+      </c>
+      <c r="B68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>571</v>
+      </c>
+      <c r="B69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>483</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>302</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>303</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>304</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>305</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>306</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>307</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>308</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>309</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>310</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>311</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>312</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>313</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>314</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>315</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>316</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>317</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>318</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>319</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>320</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>321</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>322</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>323</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>324</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>325</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>326</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>327</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>328</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>329</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>351</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>352</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>470</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>471</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>606</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>347</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>348</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>402</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>403</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>535</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>536</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>537</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>538</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>539</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>540</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>541</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>542</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>543</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>544</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>545</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>546</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>547</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>589</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>590</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>591</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>592</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>593</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>594</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>484</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>404</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>405</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>406</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>407</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>408</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>409</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>410</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>411</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>395</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>595</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>607</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>332</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>333</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>485</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>335</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>608</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>382</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>486</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>412</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>413</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>414</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>609</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>610</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>611</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>612</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>613</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>614</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>615</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>616</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>617</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>618</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>383</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>349</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>548</v>
+      </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>487</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>488</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>489</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>353</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>354</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>355</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>356</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>357</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>384</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>385</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>386</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>387</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>388</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>389</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>490</v>
+      </c>
+      <c r="B192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>491</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>492</v>
+      </c>
+      <c r="B194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>493</v>
+      </c>
+      <c r="B195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>494</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>495</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>549</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>550</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>472</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>336</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>337</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>334</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>299</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>300</v>
+      </c>
+      <c r="B206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>301</v>
+      </c>
+      <c r="B207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>415</v>
+      </c>
+      <c r="B208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>416</v>
+      </c>
+      <c r="B209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>417</v>
+      </c>
+      <c r="B210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>418</v>
+      </c>
+      <c r="B211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>419</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>420</v>
+      </c>
+      <c r="B214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>421</v>
+      </c>
+      <c r="B215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>422</v>
+      </c>
+      <c r="B216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B217" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>423</v>
+      </c>
+      <c r="B218" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>424</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B220" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>425</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>426</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>427</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>428</v>
+      </c>
+      <c r="B224" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>429</v>
+      </c>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>430</v>
+      </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>431</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>432</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>433</v>
+      </c>
+      <c r="B231" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>338</v>
+      </c>
+      <c r="B232" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>339</v>
+      </c>
+      <c r="B233" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>340</v>
+      </c>
+      <c r="B234" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>341</v>
+      </c>
+      <c r="B235" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>342</v>
+      </c>
+      <c r="B236" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>343</v>
+      </c>
+      <c r="B237" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>344</v>
+      </c>
+      <c r="B238" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>358</v>
+      </c>
+      <c r="B239" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>359</v>
+      </c>
+      <c r="B240" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B241" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>360</v>
+      </c>
+      <c r="B242" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>361</v>
+      </c>
+      <c r="B243" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>362</v>
+      </c>
+      <c r="B244" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>363</v>
+      </c>
+      <c r="B245" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>364</v>
+      </c>
+      <c r="B246" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>365</v>
+      </c>
+      <c r="B247" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>366</v>
+      </c>
+      <c r="B248" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>367</v>
+      </c>
+      <c r="B249" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>368</v>
+      </c>
+      <c r="B250" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>369</v>
+      </c>
+      <c r="B251" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>370</v>
+      </c>
+      <c r="B252" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B253" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>371</v>
+      </c>
+      <c r="B254" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>372</v>
+      </c>
+      <c r="B255" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B256" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>373</v>
+      </c>
+      <c r="B257" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>496</v>
+      </c>
+      <c r="B258" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B259" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>480</v>
+      </c>
+      <c r="B260" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>481</v>
+      </c>
+      <c r="B261" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>437</v>
+      </c>
+      <c r="B262" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>438</v>
+      </c>
+      <c r="B263" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>439</v>
+      </c>
+      <c r="B264" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>440</v>
+      </c>
+      <c r="B265" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>441</v>
+      </c>
+      <c r="B266" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>442</v>
+      </c>
+      <c r="B267" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>443</v>
+      </c>
+      <c r="B268" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>444</v>
+      </c>
+      <c r="B269" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>445</v>
+      </c>
+      <c r="B270" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B271" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B272" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>446</v>
+      </c>
+      <c r="B273" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>447</v>
+      </c>
+      <c r="B274" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>448</v>
+      </c>
+      <c r="B275" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>449</v>
+      </c>
+      <c r="B276" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>450</v>
+      </c>
+      <c r="B277" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>596</v>
+      </c>
+      <c r="B278" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>597</v>
+      </c>
+      <c r="B279" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>461</v>
+      </c>
+      <c r="B280" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>462</v>
+      </c>
+      <c r="B281" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>463</v>
+      </c>
+      <c r="B282" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B283" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>464</v>
+      </c>
+      <c r="B284" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>465</v>
+      </c>
+      <c r="B285" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>466</v>
+      </c>
+      <c r="B286" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B287" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>467</v>
+      </c>
+      <c r="B288" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>345</v>
+      </c>
+      <c r="B289" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>497</v>
+      </c>
+      <c r="B290" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>498</v>
+      </c>
+      <c r="B291" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B292" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>499</v>
+      </c>
+      <c r="B293" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>500</v>
+      </c>
+      <c r="B294" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>501</v>
+      </c>
+      <c r="B295" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>551</v>
+      </c>
+      <c r="B296" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>451</v>
+      </c>
+      <c r="B297" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>452</v>
+      </c>
+      <c r="B298" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>453</v>
+      </c>
+      <c r="B299" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>454</v>
+      </c>
+      <c r="B300" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>455</v>
+      </c>
+      <c r="B301" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B302" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>456</v>
+      </c>
+      <c r="B303" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>457</v>
+      </c>
+      <c r="B304" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>458</v>
+      </c>
+      <c r="B305" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>502</v>
+      </c>
+      <c r="B306" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>503</v>
+      </c>
+      <c r="B307" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>504</v>
+      </c>
+      <c r="B308" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B309" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B310" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>505</v>
+      </c>
+      <c r="B311" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>506</v>
+      </c>
+      <c r="B312" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>469</v>
+      </c>
+      <c r="B313" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>473</v>
+      </c>
+      <c r="B314" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>474</v>
+      </c>
+      <c r="B315" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>475</v>
+      </c>
+      <c r="B316" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>476</v>
+      </c>
+      <c r="B317" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>477</v>
+      </c>
+      <c r="B318" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>478</v>
+      </c>
+      <c r="B319" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>479</v>
+      </c>
+      <c r="B320" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>396</v>
+      </c>
+      <c r="B321" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B322" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>397</v>
+      </c>
+      <c r="B323" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B324" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B325" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B326" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B327" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B328" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B329" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B330" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B331" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B332" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>468</v>
+      </c>
+      <c r="B333" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>507</v>
+      </c>
+      <c r="B334" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>508</v>
+      </c>
+      <c r="B335" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>509</v>
+      </c>
+      <c r="B336" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>510</v>
+      </c>
+      <c r="B337" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>558</v>
+      </c>
+      <c r="B338" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>598</v>
+      </c>
+      <c r="B339" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>599</v>
+      </c>
+      <c r="B340" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>600</v>
+      </c>
+      <c r="B341" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>601</v>
+      </c>
+      <c r="B342" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>90</v>
+      </c>
+      <c r="B343" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>434</v>
+      </c>
+      <c r="B344" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>435</v>
+      </c>
+      <c r="B345" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>374</v>
+      </c>
+      <c r="B346" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>375</v>
+      </c>
+      <c r="B347" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>376</v>
+      </c>
+      <c r="B348" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>73</v>
+      </c>
+      <c r="B349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>377</v>
+      </c>
+      <c r="B350" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>378</v>
+      </c>
+      <c r="B351" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>379</v>
+      </c>
+      <c r="B352" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>602</v>
+      </c>
+      <c r="B353" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>603</v>
+      </c>
+      <c r="B354" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>511</v>
+      </c>
+      <c r="B355" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>512</v>
+      </c>
+      <c r="B356" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>513</v>
+      </c>
+      <c r="B357" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>346</v>
+      </c>
+      <c r="B358" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>86</v>
+      </c>
+      <c r="B359" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>559</v>
+      </c>
+      <c r="B360" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>560</v>
+      </c>
+      <c r="B361" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>561</v>
+      </c>
+      <c r="B362" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>562</v>
+      </c>
+      <c r="B363" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>99</v>
+      </c>
+      <c r="B364" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>563</v>
+      </c>
+      <c r="B365" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>564</v>
+      </c>
+      <c r="B366" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>565</v>
+      </c>
+      <c r="B367" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>566</v>
+      </c>
+      <c r="B368" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>567</v>
+      </c>
+      <c r="B369" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>100</v>
+      </c>
+      <c r="B370" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>459</v>
+      </c>
+      <c r="B371" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>460</v>
+      </c>
+      <c r="B372" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>514</v>
+      </c>
+      <c r="B373" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>515</v>
+      </c>
+      <c r="B374" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>516</v>
+      </c>
+      <c r="B375" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>517</v>
+      </c>
+      <c r="B376" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>380</v>
+      </c>
+      <c r="B377" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>573</v>
+      </c>
+      <c r="B378" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>574</v>
+      </c>
+      <c r="B379" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>575</v>
+      </c>
+      <c r="B380" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>576</v>
+      </c>
+      <c r="B381" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>577</v>
+      </c>
+      <c r="B382" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>518</v>
+      </c>
+      <c r="B383" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>519</v>
+      </c>
+      <c r="B384" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>604</v>
+      </c>
+      <c r="B385" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>605</v>
+      </c>
+      <c r="B386" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>330</v>
+      </c>
+      <c r="B387" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>390</v>
+      </c>
+      <c r="B388" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>391</v>
+      </c>
+      <c r="B389" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>392</v>
+      </c>
+      <c r="B390" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>393</v>
+      </c>
+      <c r="B391" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>394</v>
+      </c>
+      <c r="B392" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>568</v>
+      </c>
+      <c r="B393" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>569</v>
+      </c>
+      <c r="B394" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>582</v>
+      </c>
+      <c r="B395" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>583</v>
+      </c>
+      <c r="B396" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>584</v>
+      </c>
+      <c r="B397" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>87</v>
+      </c>
+      <c r="B398" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>585</v>
+      </c>
+      <c r="B399" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>331</v>
+      </c>
+      <c r="B400" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>381</v>
+      </c>
+      <c r="B401" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>91</v>
+      </c>
+      <c r="B402" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>482</v>
+      </c>
+      <c r="B403" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>436</v>
+      </c>
+      <c r="B404" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>520</v>
+      </c>
+      <c r="B405" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H405">
+    <sortCondition ref="A2:A405"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2997,15 +8260,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC27D81B-81E2-4F34-A871-C86CA82E872C}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3021,113 +8284,233 @@
       <c r="A2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>108</v>
+      <c r="A3" t="s">
+        <v>113</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>109</v>
+      <c r="A4" t="s">
+        <v>250</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>110</v>
+      <c r="A5" t="s">
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>111</v>
+      <c r="A6" t="s">
+        <v>112</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>112</v>
+      <c r="A7" t="s">
+        <v>251</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>264</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3136,10 +8519,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB6B8DE-FE85-4D1F-A7B9-465EEAC24C84}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S46" sqref="S46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3147,103 +8530,153 @@
     <col min="1" max="1" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8078</v>
+      </c>
+      <c r="C2">
+        <f>(B2/21077)*100</f>
+        <v>38.326137495848556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6201</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C12" si="0">(B3/21077)*100</f>
+        <v>29.420695544906771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3515</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>16.676946434502064</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
       <c r="B5">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1731</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>8.2127437491104036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.964226407932818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="B7">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.7744460786639467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8">
+        <v>335</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.5894102576267972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>50</v>
       </c>
-      <c r="B8">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
       <c r="B9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.5229871423826919</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.37007164207429899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>619</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.13759073871993169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>4.7445082317217821E-3</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B12">
+    <sortCondition descending="1" ref="B2:B12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/growth habits guide.xlsx
+++ b/data/growth habits guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C8B79E-7414-4876-B884-DFCA1EC200E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DBD219-338E-438E-8461-52076FE51439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="7" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
   </bookViews>
@@ -3561,8 +3561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE00787-7542-425F-B3EC-9EFCE3B59953}">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4998,8 +4998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62329DFF-86E4-48DA-B25C-A0AAC4761D4C}">
   <dimension ref="A1:B405"/>
   <sheetViews>
-    <sheetView topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="B280" sqref="B280:B288"/>
+    <sheetView topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="D330" sqref="D330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7670,7 +7670,7 @@
         <v>468</v>
       </c>
       <c r="B333" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -8522,7 +8522,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8594,11 +8594,11 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>1.964226407932818</v>
+        <v>1.9594818997010961</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -8618,11 +8618,11 @@
         <v>121</v>
       </c>
       <c r="B8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>1.5894102576267972</v>
+        <v>1.5941547658585187</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/growth habits guide.xlsx
+++ b/data/growth habits guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DBD219-338E-438E-8461-52076FE51439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7580B6A8-39AD-422D-8BE6-42EA3FE206BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="7" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="8" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
   </bookViews>
   <sheets>
     <sheet name="replacements (unphotographed)" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="ferns (all species)" sheetId="6" r:id="rId6"/>
     <sheet name="unscored (all species)" sheetId="7" r:id="rId7"/>
     <sheet name="final counts (all species)" sheetId="8" r:id="rId8"/>
+    <sheet name="final counts (photographed)" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="621">
   <si>
     <t>shrub</t>
   </si>
@@ -3398,7 +3399,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C12"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8519,10 +8520,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB6B8DE-FE85-4D1F-A7B9-465EEAC24C84}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8567,74 +8568,74 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3515</v>
+        <v>1731</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>16.676946434502064</v>
+        <f>(B4/21077)*100</f>
+        <v>8.2127437491104036</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1731</v>
+        <v>3515</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>8.2127437491104036</v>
+        <f>(B5/21077)*100</f>
+        <v>16.676946434502064</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="B6">
-        <v>413</v>
+        <v>336</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>1.9594818997010961</v>
+        <f>(B6/21077)*100</f>
+        <v>1.5941547658585187</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>1.7744460786639467</v>
+        <f>(B7/21077)*100</f>
+        <v>1.9594818997010961</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>1.5941547658585187</v>
+        <f>(B8/21077)*100</f>
+        <v>1.5229871423826919</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>1.5229871423826919</v>
+        <f>(B9/21077)*100</f>
+        <v>1.7744460786639467</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -8651,26 +8652,158 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>619</v>
+        <v>119</v>
       </c>
       <c r="B11">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>0.13759073871993169</v>
+        <f>(B11/21077)*100</f>
+        <v>4.7445082317217821E-3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>619</v>
+      </c>
+      <c r="B12">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <f>(B12/21077)*100</f>
+        <v>0.13759073871993169</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1406</v>
+      </c>
+      <c r="G22">
+        <f>(F22/3715)*100</f>
+        <v>37.846567967698519</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1289</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23:G32" si="1">(F23/3715)*100</f>
+        <v>34.697173620457605</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>597</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>16.069986541049801</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>213</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>5.7335127860026915</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26">
+        <v>89</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>2.3956931359353972</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>51</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>1.3728129205921937</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>34</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0.91520861372812923</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0.86137281292059209</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>8.0753701211305526E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
         <v>119</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>4.7445082317217821E-3</v>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>2.6917900403768503E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>619</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8679,4 +8812,275 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C48B43-E605-4D93-B6A6-E9EC6A19FE56}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>6672</v>
+      </c>
+      <c r="C2">
+        <f>(B2/17362)*100</f>
+        <v>38.428752447874672</v>
+      </c>
+      <c r="L2">
+        <v>38.428752447874672</v>
+      </c>
+      <c r="M2">
+        <v>37.846567967698519</v>
+      </c>
+      <c r="N2">
+        <f>M2-L2</f>
+        <v>-0.58218448017615287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4912</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C12" si="0">(B3/17362)*100</f>
+        <v>28.291671466420919</v>
+      </c>
+      <c r="L3">
+        <v>28.291671466420919</v>
+      </c>
+      <c r="M3">
+        <v>34.697173620457605</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N12" si="1">M3-L3</f>
+        <v>6.4055021540366859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1134</v>
+      </c>
+      <c r="C4">
+        <f>(B4/17362)*100</f>
+        <v>6.5315055869139496</v>
+      </c>
+      <c r="L4">
+        <v>6.5315055869139496</v>
+      </c>
+      <c r="M4">
+        <v>16.069986541049801</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="1"/>
+        <v>9.5384809541358511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3302</v>
+      </c>
+      <c r="C5">
+        <f>(B5/17362)*100</f>
+        <v>19.018546250431978</v>
+      </c>
+      <c r="L5">
+        <v>19.018546250431978</v>
+      </c>
+      <c r="M5">
+        <v>5.7335127860026915</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>-13.285033464429286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6">
+        <v>247</v>
+      </c>
+      <c r="C6">
+        <f>(B6/17362)*100</f>
+        <v>1.4226471604653841</v>
+      </c>
+      <c r="L6">
+        <v>1.4226471604653841</v>
+      </c>
+      <c r="M6">
+        <v>2.3956931359353972</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>0.97304597547001315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>362</v>
+      </c>
+      <c r="C7">
+        <f>(B7/17362)*100</f>
+        <v>2.0850132473217373</v>
+      </c>
+      <c r="L7">
+        <v>2.0850132473217373</v>
+      </c>
+      <c r="M7">
+        <v>1.3728129205921937</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>-0.71220032672954359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>287</v>
+      </c>
+      <c r="C8">
+        <f>(B8/17362)*100</f>
+        <v>1.653035364589333</v>
+      </c>
+      <c r="L8">
+        <v>1.653035364589333</v>
+      </c>
+      <c r="M8">
+        <v>0.91520861372812923</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>-0.73782675086120375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>342</v>
+      </c>
+      <c r="C9">
+        <f>(B9/17362)*100</f>
+        <v>1.9698191452597626</v>
+      </c>
+      <c r="L9">
+        <v>1.9698191452597626</v>
+      </c>
+      <c r="M9">
+        <v>0.86137281292059209</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>-1.1084463323391707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.43197788273240406</v>
+      </c>
+      <c r="L10">
+        <v>0.43197788273240406</v>
+      </c>
+      <c r="M10">
+        <v>8.0753701211305526E-2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>-0.35122418152109852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>(B11/17362)*100</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2.6917900403768503E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>2.6917900403768503E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>619</v>
+      </c>
+      <c r="B12">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <f>(B12/17362)*100</f>
+        <v>0.16703144798986291</v>
+      </c>
+      <c r="L12">
+        <v>0.16703144798986291</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>-0.16703144798986291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/growth habits guide.xlsx
+++ b/data/growth habits guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\GitHub\Australian-plant-photos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7580B6A8-39AD-422D-8BE6-42EA3FE206BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909677A0-8320-4130-AE75-488DA788A39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="8" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="3" xr2:uid="{61B491D9-5703-4DC7-8FB0-B07B7908227B}"/>
   </bookViews>
   <sheets>
     <sheet name="replacements (unphotographed)" sheetId="1" r:id="rId1"/>
@@ -3398,8 +3398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD68C7C9-2F00-4B36-8A40-E29639428FD7}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8562,7 +8562,7 @@
         <v>6201</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C12" si="0">(B3/21077)*100</f>
+        <f t="shared" ref="C3:C10" si="0">(B3/21077)*100</f>
         <v>29.420695544906771</v>
       </c>
     </row>
@@ -8574,7 +8574,7 @@
         <v>1731</v>
       </c>
       <c r="C4">
-        <f>(B4/21077)*100</f>
+        <f t="shared" ref="C4:C9" si="1">(B4/21077)*100</f>
         <v>8.2127437491104036</v>
       </c>
     </row>
@@ -8586,7 +8586,7 @@
         <v>3515</v>
       </c>
       <c r="C5">
-        <f>(B5/21077)*100</f>
+        <f t="shared" si="1"/>
         <v>16.676946434502064</v>
       </c>
     </row>
@@ -8598,7 +8598,7 @@
         <v>336</v>
       </c>
       <c r="C6">
-        <f>(B6/21077)*100</f>
+        <f t="shared" si="1"/>
         <v>1.5941547658585187</v>
       </c>
     </row>
@@ -8610,7 +8610,7 @@
         <v>413</v>
       </c>
       <c r="C7">
-        <f>(B7/21077)*100</f>
+        <f t="shared" si="1"/>
         <v>1.9594818997010961</v>
       </c>
     </row>
@@ -8622,7 +8622,7 @@
         <v>321</v>
       </c>
       <c r="C8">
-        <f>(B8/21077)*100</f>
+        <f t="shared" si="1"/>
         <v>1.5229871423826919</v>
       </c>
     </row>
@@ -8634,7 +8634,7 @@
         <v>374</v>
       </c>
       <c r="C9">
-        <f>(B9/21077)*100</f>
+        <f t="shared" si="1"/>
         <v>1.7744460786639467</v>
       </c>
     </row>
@@ -8694,7 +8694,7 @@
         <v>1289</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:G32" si="1">(F23/3715)*100</f>
+        <f t="shared" ref="G23:G32" si="2">(F23/3715)*100</f>
         <v>34.697173620457605</v>
       </c>
     </row>
@@ -8706,7 +8706,7 @@
         <v>597</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.069986541049801</v>
       </c>
     </row>
@@ -8718,7 +8718,7 @@
         <v>213</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.7335127860026915</v>
       </c>
     </row>
@@ -8730,7 +8730,7 @@
         <v>89</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3956931359353972</v>
       </c>
     </row>
@@ -8742,7 +8742,7 @@
         <v>51</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3728129205921937</v>
       </c>
     </row>
@@ -8754,7 +8754,7 @@
         <v>34</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91520861372812923</v>
       </c>
     </row>
@@ -8766,7 +8766,7 @@
         <v>32</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.86137281292059209</v>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
         <v>3</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0753701211305526E-2</v>
       </c>
     </row>
@@ -8790,7 +8790,7 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6917900403768503E-2</v>
       </c>
     </row>
@@ -8802,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8818,8 +8818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C48B43-E605-4D93-B6A6-E9EC6A19FE56}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8868,7 +8868,7 @@
         <v>4912</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C12" si="0">(B3/17362)*100</f>
+        <f t="shared" ref="C3:C10" si="0">(B3/17362)*100</f>
         <v>28.291671466420919</v>
       </c>
       <c r="L3">
@@ -8890,7 +8890,7 @@
         <v>1134</v>
       </c>
       <c r="C4">
-        <f>(B4/17362)*100</f>
+        <f t="shared" ref="C4:C9" si="2">(B4/17362)*100</f>
         <v>6.5315055869139496</v>
       </c>
       <c r="L4">
@@ -8912,7 +8912,7 @@
         <v>3302</v>
       </c>
       <c r="C5">
-        <f>(B5/17362)*100</f>
+        <f t="shared" si="2"/>
         <v>19.018546250431978</v>
       </c>
       <c r="L5">
@@ -8934,7 +8934,7 @@
         <v>247</v>
       </c>
       <c r="C6">
-        <f>(B6/17362)*100</f>
+        <f t="shared" si="2"/>
         <v>1.4226471604653841</v>
       </c>
       <c r="L6">
@@ -8956,7 +8956,7 @@
         <v>362</v>
       </c>
       <c r="C7">
-        <f>(B7/17362)*100</f>
+        <f t="shared" si="2"/>
         <v>2.0850132473217373</v>
       </c>
       <c r="L7">
@@ -8978,7 +8978,7 @@
         <v>287</v>
       </c>
       <c r="C8">
-        <f>(B8/17362)*100</f>
+        <f t="shared" si="2"/>
         <v>1.653035364589333</v>
       </c>
       <c r="L8">
@@ -9000,7 +9000,7 @@
         <v>342</v>
       </c>
       <c r="C9">
-        <f>(B9/17362)*100</f>
+        <f t="shared" si="2"/>
         <v>1.9698191452597626</v>
       </c>
       <c r="L9">
